--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H2">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I2">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J2">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N2">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O2">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P2">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q2">
-        <v>53.93736285530399</v>
+        <v>11.34961314399033</v>
       </c>
       <c r="R2">
-        <v>485.436265697736</v>
+        <v>102.146518295913</v>
       </c>
       <c r="S2">
-        <v>0.1112300798690777</v>
+        <v>0.04093657698529204</v>
       </c>
       <c r="T2">
-        <v>0.1112300798690777</v>
+        <v>0.04093657698529205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H3">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I3">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J3">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>27.867818</v>
       </c>
       <c r="O3">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P3">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q3">
-        <v>5.812873842438667</v>
+        <v>4.601097512344666</v>
       </c>
       <c r="R3">
-        <v>52.31586458194801</v>
+        <v>41.409877611102</v>
       </c>
       <c r="S3">
-        <v>0.01198735695510083</v>
+        <v>0.01659555970246148</v>
       </c>
       <c r="T3">
-        <v>0.01198735695510083</v>
+        <v>0.01659555970246148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H4">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I4">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J4">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N4">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O4">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P4">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q4">
-        <v>3.541501916286</v>
+        <v>2.982138078586333</v>
       </c>
       <c r="R4">
-        <v>31.873517246574</v>
+        <v>26.839242707277</v>
       </c>
       <c r="S4">
-        <v>0.007303314810954775</v>
+        <v>0.01075618379992638</v>
       </c>
       <c r="T4">
-        <v>0.007303314810954772</v>
+        <v>0.01075618379992638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H5">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I5">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J5">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N5">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O5">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P5">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q5">
-        <v>55.277883978468</v>
+        <v>40.23704857769566</v>
       </c>
       <c r="R5">
-        <v>497.5009558062121</v>
+        <v>362.133437199261</v>
       </c>
       <c r="S5">
-        <v>0.1139945137179428</v>
+        <v>0.1451297956912263</v>
       </c>
       <c r="T5">
-        <v>0.1139945137179427</v>
+        <v>0.1451297956912264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.700771</v>
       </c>
       <c r="I6">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J6">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N6">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O6">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P6">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q6">
-        <v>77.59737483584399</v>
+        <v>20.62850900373967</v>
       </c>
       <c r="R6">
-        <v>698.3763735225959</v>
+        <v>185.656581033657</v>
       </c>
       <c r="S6">
-        <v>0.1600219540539315</v>
+        <v>0.07440434631646668</v>
       </c>
       <c r="T6">
-        <v>0.1600219540539315</v>
+        <v>0.0744043463164667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.700771</v>
       </c>
       <c r="I7">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J7">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>27.867818</v>
       </c>
       <c r="O7">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P7">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q7">
         <v>8.362732743075334</v>
@@ -883,10 +883,10 @@
         <v>75.264594687678</v>
       </c>
       <c r="S7">
-        <v>0.01724569726242279</v>
+        <v>0.03016328824613703</v>
       </c>
       <c r="T7">
-        <v>0.01724569726242278</v>
+        <v>0.03016328824613703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.700771</v>
       </c>
       <c r="I8">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J8">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N8">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O8">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P8">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q8">
-        <v>5.095007192271</v>
+        <v>5.420190223583666</v>
       </c>
       <c r="R8">
-        <v>45.855064730439</v>
+        <v>48.781712012253</v>
       </c>
       <c r="S8">
-        <v>0.01050696635744215</v>
+        <v>0.01954992047285317</v>
       </c>
       <c r="T8">
-        <v>0.01050696635744214</v>
+        <v>0.01954992047285318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.700771</v>
       </c>
       <c r="I9">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J9">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N9">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O9">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P9">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q9">
-        <v>79.52592518689799</v>
+        <v>73.13291724911433</v>
       </c>
       <c r="R9">
-        <v>715.733326682082</v>
+        <v>658.196255242029</v>
       </c>
       <c r="S9">
-        <v>0.1639990266845446</v>
+        <v>0.2637809112209782</v>
       </c>
       <c r="T9">
-        <v>0.1639990266845446</v>
+        <v>0.2637809112209782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H10">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I10">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J10">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N10">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O10">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P10">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q10">
-        <v>67.51960637345999</v>
+        <v>18.52170977233111</v>
       </c>
       <c r="R10">
-        <v>607.6764573611399</v>
+        <v>166.69538795098</v>
       </c>
       <c r="S10">
-        <v>0.1392394958165835</v>
+        <v>0.06680539577648485</v>
       </c>
       <c r="T10">
-        <v>0.1392394958165834</v>
+        <v>0.06680539577648485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H11">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I11">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J11">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>27.867818</v>
       </c>
       <c r="O11">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P11">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q11">
-        <v>7.276643368585556</v>
+        <v>7.508642953435557</v>
       </c>
       <c r="R11">
-        <v>65.48979031726999</v>
+        <v>67.57778658092001</v>
       </c>
       <c r="S11">
-        <v>0.0150059546892915</v>
+        <v>0.0270826975702818</v>
       </c>
       <c r="T11">
-        <v>0.01500595468929149</v>
+        <v>0.0270826975702818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H12">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I12">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J12">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N12">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O12">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P12">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q12">
-        <v>4.433305647515</v>
+        <v>4.866623671824445</v>
       </c>
       <c r="R12">
-        <v>39.899750827635</v>
+        <v>43.79961304642001</v>
       </c>
       <c r="S12">
-        <v>0.009142399908946152</v>
+        <v>0.0175532779904111</v>
       </c>
       <c r="T12">
-        <v>0.009142399908946146</v>
+        <v>0.0175532779904111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H13">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I13">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J13">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N13">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O13">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P13">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q13">
-        <v>69.19769098457</v>
+        <v>65.66381835189556</v>
       </c>
       <c r="R13">
-        <v>622.7792188611299</v>
+        <v>590.97436516706</v>
       </c>
       <c r="S13">
-        <v>0.1427000559077686</v>
+        <v>0.2368408439131637</v>
       </c>
       <c r="T13">
-        <v>0.1427000559077685</v>
+        <v>0.2368408439131637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H14">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I14">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J14">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N14">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O14">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P14">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q14">
-        <v>21.53459453364</v>
+        <v>2.680344848419334</v>
       </c>
       <c r="R14">
-        <v>193.81135080276</v>
+        <v>24.123103635774</v>
       </c>
       <c r="S14">
-        <v>0.04440882058603347</v>
+        <v>0.009667654909678431</v>
       </c>
       <c r="T14">
-        <v>0.04440882058603346</v>
+        <v>0.009667654909678431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H15">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I15">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J15">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>27.867818</v>
       </c>
       <c r="O15">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P15">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q15">
-        <v>2.320800918797778</v>
+        <v>1.086603380910667</v>
       </c>
       <c r="R15">
-        <v>20.88720826918</v>
+        <v>9.779430428196001</v>
       </c>
       <c r="S15">
-        <v>0.004785975025338507</v>
+        <v>0.003919236928236752</v>
       </c>
       <c r="T15">
-        <v>0.004785975025338504</v>
+        <v>0.003919236928236751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H16">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I16">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J16">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N16">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O16">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P16">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q16">
-        <v>1.41395136451</v>
+        <v>0.7042670384273334</v>
       </c>
       <c r="R16">
-        <v>12.72556228059</v>
+        <v>6.338403345845999</v>
       </c>
       <c r="S16">
-        <v>0.002915862305455169</v>
+        <v>0.002540199517906028</v>
       </c>
       <c r="T16">
-        <v>0.002915862305455168</v>
+        <v>0.002540199517906028</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H17">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I17">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J17">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N17">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O17">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P17">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q17">
-        <v>22.06980013738</v>
+        <v>9.502453035408667</v>
       </c>
       <c r="R17">
-        <v>198.62820123642</v>
+        <v>85.522077318678</v>
       </c>
       <c r="S17">
-        <v>0.04551252604916633</v>
+        <v>0.03427411095849597</v>
       </c>
       <c r="T17">
-        <v>0.04551252604916632</v>
+        <v>0.03427411095849597</v>
       </c>
     </row>
   </sheetData>
